--- a/classical_laminate_theory/CLT_output_data/2023_SIS_layup_abd_compliance.xlsx
+++ b/classical_laminate_theory/CLT_output_data/2023_SIS_layup_abd_compliance.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -52,16 +52,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="true"/>
-    <col min="2" max="2" width="16.28515625" customWidth="true"/>
-    <col min="3" max="3" width="16.28515625" customWidth="true"/>
-    <col min="4" max="4" width="16.28515625" customWidth="true"/>
-    <col min="5" max="5" width="15.5703125" customWidth="true"/>
-    <col min="6" max="6" width="16.28515625" customWidth="true"/>
+    <col min="1" max="1" width="15.7265625" customWidth="true"/>
+    <col min="2" max="2" width="15.7265625" customWidth="true"/>
+    <col min="3" max="3" width="15.7265625" customWidth="true"/>
+    <col min="4" max="4" width="15.7265625" customWidth="true"/>
+    <col min="5" max="5" width="15.08984375" customWidth="true"/>
+    <col min="6" max="6" width="15.7265625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
